--- a/EXPORT_FILES/Справка (Махинов).xlsx
+++ b/EXPORT_FILES/Справка (Махинов).xlsx
@@ -26,7 +26,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Табл_5!$A$12:$X$15</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Табл_5!$A$14:$X$17</definedName>
     <definedName localSheetId="5" name="_xlnm.Print_Titles">Табл_6!$2:$4</definedName>
     <definedName localSheetId="0" name="_xlnm.Print_Area">Табл_1!$A$1:$U$16</definedName>
     <definedName localSheetId="1" name="_xlnm.Print_Area">Табл_2!$A$1:$U$10</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1161">
   <si>
     <t/>
   </si>
@@ -3517,10 +3517,28 @@
     <t>Неопределенно</t>
   </si>
   <si>
-    <t>В 2025 ГОДУ НА 28 января 2025 г.</t>
+    <t>В 2025 ГОДУ НА 11 марта 2025 г.</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>русский</t>
+  </si>
+  <si>
+    <t>кореец</t>
+  </si>
+  <si>
+    <t>чуваш</t>
   </si>
 </sst>
 </file>
@@ -5193,7 +5211,7 @@
         <f>SUM(I13,L13:O13)</f>
       </c>
       <c r="I13" s="9">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="J13" s="9">
         <v>0</v>
@@ -5202,7 +5220,7 @@
         <f>SUM(L13:O13)</f>
       </c>
       <c r="L13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="9">
         <v>0</v>
@@ -5212,7 +5230,7 @@
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="6">
         <f>SUM(R13:S13)</f>
@@ -5221,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="S13" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T13" s="9">
         <v>0</v>
       </c>
       <c r="U13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="10"/>
     </row>
@@ -5620,7 +5638,7 @@
         <f>[1]Данные!C20</f>
       </c>
       <c r="E5" s="13">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="e">
         <f ref="F5:F10" si="0" t="shared">(E5/D5)*100</f>
@@ -5629,7 +5647,7 @@
         <f>[1]Данные!D20</f>
       </c>
       <c r="H5" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7" t="e">
         <f>(H5/G5)*100</f>
@@ -5638,7 +5656,7 @@
         <f>[1]Данные!E20</f>
       </c>
       <c r="K5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="7" t="e">
         <f ref="L5:L10" si="1" t="shared">(K5/J5)*100</f>
@@ -5656,7 +5674,7 @@
         <f>[1]Данные!G20</f>
       </c>
       <c r="Q5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="7" t="e">
         <f ref="R5:R8" si="3" t="shared">(Q5/P5)*100</f>
@@ -5665,7 +5683,7 @@
         <f>[1]Данные!H20</f>
       </c>
       <c r="T5" s="13">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="U5" s="7" t="e">
         <f ref="U5:U8" si="4" t="shared">(T5/S5)*100</f>
@@ -6219,19 +6237,19 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="18">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -6243,13 +6261,13 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="18">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="24.9" r="6" spans="1:29" x14ac:dyDescent="0.3">
@@ -8400,10 +8418,10 @@
         <f si="0" t="shared"/>
       </c>
       <c r="F21" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -9745,7 +9763,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -9783,10 +9801,10 @@
         <v>120</v>
       </c>
       <c r="C7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
@@ -9859,7 +9877,7 @@
         <v>122</v>
       </c>
       <c r="C9" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -9973,7 +9991,7 @@
         <v>125</v>
       </c>
       <c r="C12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="13">
         <v>0</v>
@@ -10011,7 +10029,7 @@
         <v>126</v>
       </c>
       <c r="C13" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="13">
         <v>0</v>
@@ -10049,7 +10067,7 @@
         <v>127</v>
       </c>
       <c r="C14" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="13">
         <v>0</v>
@@ -10087,7 +10105,7 @@
         <v>128</v>
       </c>
       <c r="C15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="13">
         <v>0</v>
@@ -11421,7 +11439,7 @@
         <v>163</v>
       </c>
       <c r="C50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="13">
         <v>0</v>
@@ -12071,7 +12089,7 @@
         <v>180</v>
       </c>
       <c r="C67" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="13">
         <v>0</v>
@@ -12261,7 +12279,7 @@
         <v>185</v>
       </c>
       <c r="C72" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" s="13">
         <v>0</v>
@@ -12375,7 +12393,7 @@
         <v>188</v>
       </c>
       <c r="C75" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="13">
         <v>0</v>
@@ -12675,7 +12693,7 @@
       </c>
       <c r="B83" s="106"/>
       <c r="C83" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="13">
         <v>0</v>
@@ -12861,7 +12879,7 @@
         <v>201</v>
       </c>
       <c r="C88" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="13">
         <v>0</v>
@@ -13359,10 +13377,10 @@
         <v>214</v>
       </c>
       <c r="C101" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="13">
         <v>0</v>
@@ -13785,7 +13803,7 @@
       </c>
       <c r="B112" s="106"/>
       <c r="C112" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="13">
         <v>0</v>
@@ -14039,10 +14057,10 @@
         <v>231</v>
       </c>
       <c r="C118" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="13">
         <v>0</v>
@@ -15314,7 +15332,7 @@
         <v>1152</v>
       </c>
       <c r="C153" s="13">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
@@ -15394,7 +15412,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110">
       <selection activeCell="E7" sqref="E7"/>
@@ -15520,10 +15538,10 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="13">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -15545,11 +15563,21 @@
       </c>
     </row>
     <row customHeight="1" ht="12" r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="43" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1154</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -15566,52 +15594,86 @@
         <f si="0" t="shared"/>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+    <row customHeight="1" ht="12" r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="45">
+      <c r="B9" s="114"/>
+      <c r="C9" s="45">
         <f ca="1">SUM(C5:INDIRECT("C"&amp;ROW()-1))</f>
       </c>
-      <c r="D7" s="45">
+      <c r="D9" s="45">
         <f ca="1">SUM(D5:INDIRECT("D"&amp;ROW()-1))</f>
       </c>
-      <c r="E7" s="45">
+      <c r="E9" s="45">
         <f ca="1">SUM(E5:INDIRECT("E"&amp;ROW()-1))</f>
       </c>
-      <c r="F7" s="45">
+      <c r="F9" s="45">
         <f ref="F7:N7" si="1" t="shared">SUM(F5:F6)</f>
       </c>
-      <c r="G7" s="45">
+      <c r="G9" s="45">
         <f si="1" t="shared"/>
       </c>
-      <c r="H7" s="45">
+      <c r="H9" s="45">
         <f si="1" t="shared"/>
       </c>
-      <c r="I7" s="45">
+      <c r="I9" s="45">
         <f si="1" t="shared"/>
       </c>
-      <c r="J7" s="45">
+      <c r="J9" s="45">
         <f si="1" t="shared"/>
       </c>
-      <c r="K7" s="45">
+      <c r="K9" s="45">
         <f si="1" t="shared"/>
       </c>
-      <c r="L7" s="45">
+      <c r="L9" s="45">
         <f si="1" t="shared"/>
       </c>
-      <c r="M7" s="45">
+      <c r="M9" s="45">
         <f si="1" t="shared"/>
       </c>
-      <c r="N7" s="45">
+      <c r="N9" s="45">
         <f si="1" t="shared"/>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="10">
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="A2:A4"/>
@@ -15758,10 +15820,10 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="13">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D5" s="13">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>1154</v>
@@ -15790,7 +15852,7 @@
         <v>267</v>
       </c>
       <c r="C6" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -15822,7 +15884,7 @@
         <v>268</v>
       </c>
       <c r="C7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -15854,7 +15916,7 @@
         <v>288</v>
       </c>
       <c r="C8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -15950,7 +16012,7 @@
         <v>291</v>
       </c>
       <c r="C11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13">
         <v>0</v>
@@ -15982,7 +16044,7 @@
         <v>269</v>
       </c>
       <c r="C12" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D12" s="13">
         <v>0</v>
@@ -16014,7 +16076,7 @@
         <v>270</v>
       </c>
       <c r="C13" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="13">
         <v>0</v>
